--- a/phones_list.xlsx
+++ b/phones_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodi\Desktop\piton\dijital_kart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D90FADA-1D7D-4435-B270-8158E5D54F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7873DE37-1FBB-4A3F-B5A0-0008B57C4F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>(531) 294 16 77</t>
+    <t>(531) 111 11 11</t>
+  </si>
+  <si>
+    <t>531-111-11-11</t>
   </si>
 </sst>
 </file>
@@ -63,8 +66,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,32 +354,32 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>5312941677</v>
+      <c r="A2" s="1">
+        <v>5311111111</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>905312941677</v>
+      <c r="A3" s="1">
+        <v>905311111111</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>5312941677</v>
+      <c r="A4" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
